--- a/someProject/Template/Student_exam_details.xlsx
+++ b/someProject/Template/Student_exam_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\someProject\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4A6607-8A85-4286-B5D4-85110C7F43DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0828382B-C16C-416E-8602-3E15B2C60051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="4824" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9012" yWindow="4140" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>21W0101056</t>
-  </si>
-  <si>
-    <t>CS301</t>
-  </si>
-  <si>
-    <t>A+</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Roll no.</t>
+  </si>
+  <si>
+    <t>CGPA</t>
+  </si>
+  <si>
+    <t>Subject Code</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>SGPA 1</t>
+  </si>
+  <si>
+    <t>SGPA 2</t>
+  </si>
+  <si>
+    <t>SGPA 3</t>
+  </si>
+  <si>
+    <t>SGPA 4</t>
+  </si>
+  <si>
+    <t>SGPA 5</t>
+  </si>
+  <si>
+    <t>SGPA 6</t>
+  </si>
+  <si>
+    <t>SGPA 7</t>
+  </si>
+  <si>
+    <t>SGPA 8</t>
+  </si>
+  <si>
+    <t>&lt;Start inserting data from here&gt;</t>
   </si>
 </sst>
 </file>
@@ -351,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -363,38 +393,43 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>3.5</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3.9</v>
-      </c>
-      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1">
-        <v>2.5</v>
-      </c>
-      <c r="H1">
-        <v>3.3</v>
-      </c>
-      <c r="I1">
-        <v>3.1</v>
-      </c>
-      <c r="J1">
-        <v>5.5</v>
-      </c>
-      <c r="K1">
-        <v>3.1</v>
-      </c>
-      <c r="L1">
-        <v>2.1</v>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
